--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/EnemyList3.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/EnemyList3.xlsx
@@ -5,61 +5,117 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3nen_GT_7\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K018A1699\3nen_team01\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EnemyList3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
   <si>
     <t>#</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>x値</t>
-    <rPh sb="1" eb="2">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>y値</t>
-    <rPh sb="1" eb="2">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SmallEnemy</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlyEnemy</t>
+  </si>
+  <si>
+    <t>32*14</t>
+  </si>
+  <si>
+    <t>32*22</t>
+  </si>
+  <si>
+    <t>32*16</t>
+  </si>
+  <si>
+    <t>32*20</t>
+  </si>
+  <si>
+    <t>32*26</t>
+  </si>
+  <si>
+    <t>32*28</t>
+  </si>
+  <si>
+    <t>32*11</t>
+  </si>
+  <si>
+    <t>32*13</t>
+  </si>
+  <si>
+    <t>32* 13</t>
+  </si>
+  <si>
+    <t>32*3</t>
+  </si>
+  <si>
+    <t>32*50</t>
+  </si>
+  <si>
+    <t>32*5</t>
+  </si>
+  <si>
+    <t>32*52</t>
+  </si>
+  <si>
+    <t>32*48</t>
+  </si>
+  <si>
+    <t>32*7</t>
+  </si>
+  <si>
+    <t>32*17</t>
+  </si>
+  <si>
+    <t>32* 53</t>
+  </si>
+  <si>
+    <t>32*19</t>
+  </si>
+  <si>
+    <t>32*55</t>
+  </si>
+  <si>
+    <t>32*51</t>
+  </si>
+  <si>
+    <t>32*53</t>
+  </si>
+  <si>
+    <t>32*35</t>
+  </si>
+  <si>
+    <t>32*37</t>
+  </si>
+  <si>
+    <t>32*38</t>
+  </si>
+  <si>
+    <t>32*40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +125,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -76,15 +276,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,9 +465,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -103,8 +706,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,18 +1026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,19 +1048,567 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>448</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>544</v>
+      </c>
+      <c r="D4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>448</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>508</v>
+      </c>
+      <c r="D6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>644</v>
+      </c>
+      <c r="D7">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>704</v>
+      </c>
+      <c r="D8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/EnemyList3.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/EnemyList3.xlsx
@@ -5,112 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K018A1699\3nen_team01\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPC-018A1434\Desktop\Team_7Seven\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyList3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>x値</t>
-  </si>
-  <si>
-    <t>y値</t>
-  </si>
-  <si>
-    <t>FlyEnemy</t>
-  </si>
-  <si>
-    <t>32*14</t>
-  </si>
-  <si>
-    <t>32*22</t>
-  </si>
-  <si>
-    <t>32*16</t>
-  </si>
-  <si>
-    <t>32*20</t>
-  </si>
-  <si>
-    <t>32*26</t>
-  </si>
-  <si>
-    <t>32*28</t>
-  </si>
-  <si>
-    <t>32*11</t>
-  </si>
-  <si>
-    <t>32*13</t>
-  </si>
-  <si>
-    <t>32* 13</t>
-  </si>
-  <si>
-    <t>32*3</t>
-  </si>
-  <si>
-    <t>32*50</t>
-  </si>
-  <si>
-    <t>32*5</t>
-  </si>
-  <si>
-    <t>32*52</t>
-  </si>
-  <si>
-    <t>32*48</t>
-  </si>
-  <si>
-    <t>32*7</t>
-  </si>
-  <si>
-    <t>32*17</t>
-  </si>
-  <si>
-    <t>32* 53</t>
-  </si>
-  <si>
-    <t>32*19</t>
-  </si>
-  <si>
-    <t>32*55</t>
-  </si>
-  <si>
-    <t>32*51</t>
-  </si>
-  <si>
-    <t>32*53</t>
-  </si>
-  <si>
-    <t>32*35</t>
-  </si>
-  <si>
-    <t>32*37</t>
-  </si>
-  <si>
-    <t>32*38</t>
-  </si>
-  <si>
-    <t>32*40</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,589 +931,6829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BN12" sqref="BN12:BO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="64" width="3.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>700</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>4</v>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>640</v>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>640</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>4</v>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>700</v>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>1</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>1</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>1</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>1</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>1</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>1</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>1</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:BL17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:BL35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>